--- a/Results/MultivModels_DOnsetMin#0#Max#10_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#CK.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#10_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#CK.xlsx
@@ -420,22 +420,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.3779540038725031</v>
+        <v>-0.01519034793236498</v>
       </c>
       <c r="C2">
-        <v>0.287502979243882</v>
+        <v>0.01307545737013781</v>
       </c>
       <c r="D2">
-        <v>0.3208900670535649</v>
+        <v>0.02048453952877087</v>
       </c>
       <c r="E2">
-        <v>0.5180850018659909</v>
+        <v>0.02034628567076598</v>
       </c>
       <c r="F2">
-        <v>0.2560197355770314</v>
+        <v>0.01936516808027353</v>
       </c>
       <c r="G2">
-        <v>0.4360525611269013</v>
+        <v>0.01955485750834182</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -443,22 +443,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.13581183904088</v>
+        <v>-0.01736480763207315</v>
       </c>
       <c r="C3">
-        <v>0.1017794398614549</v>
+        <v>0.01124509784708324</v>
       </c>
       <c r="D3">
-        <v>0.1705521955674373</v>
+        <v>0.02259191767323396</v>
       </c>
       <c r="E3">
-        <v>0.1269647310728486</v>
+        <v>0.01852096420977777</v>
       </c>
       <c r="F3">
-        <v>0.1459500543062543</v>
+        <v>0.02412434658290823</v>
       </c>
       <c r="G3">
-        <v>0.1366341371588032</v>
+        <v>0.02126080295847388</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -466,22 +466,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.01996462257795038</v>
+        <v>-0.2639337744820638</v>
       </c>
       <c r="C4">
-        <v>0.01616816016904119</v>
+        <v>0.08249225865820534</v>
       </c>
       <c r="D4">
-        <v>0.02240829327259987</v>
+        <v>0.2719614816595174</v>
       </c>
       <c r="E4">
-        <v>0.0179618600382668</v>
+        <v>0.4543364344396124</v>
       </c>
       <c r="F4">
-        <v>0.02746825026553112</v>
+        <v>0.2308232657293306</v>
       </c>
       <c r="G4">
-        <v>0.02160603704098521</v>
+        <v>0.5266310320714065</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -489,22 +489,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.2599679203641681</v>
+        <v>-0.01594577266394576</v>
       </c>
       <c r="C5">
-        <v>0.1831981657426696</v>
+        <v>0.01492401222556796</v>
       </c>
       <c r="D5">
-        <v>0.1907456802568614</v>
+        <v>0.02074401501558483</v>
       </c>
       <c r="E5">
-        <v>0.2197570400707353</v>
+        <v>0.01726703941248941</v>
       </c>
       <c r="F5">
-        <v>0.3795448445811403</v>
+        <v>0.02229355736792556</v>
       </c>
       <c r="G5">
-        <v>0.3588663350239711</v>
+        <v>0.01989492533384409</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,22 +512,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.3514440576706512</v>
+        <v>-0.001488476145686935</v>
       </c>
       <c r="C6">
-        <v>0.133470680835922</v>
+        <v>0.001575154457514953</v>
       </c>
       <c r="D6">
-        <v>0.3147794580596529</v>
+        <v>0.001896096214505497</v>
       </c>
       <c r="E6">
-        <v>0.5619709897076188</v>
+        <v>0.001712378512041045</v>
       </c>
       <c r="F6">
-        <v>0.2849369163624232</v>
+        <v>0.002150751755427685</v>
       </c>
       <c r="G6">
-        <v>0.4960874583590401</v>
+        <v>0.002158630400213744</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -535,22 +535,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.0021842343543889</v>
+        <v>-0.1135734316325635</v>
       </c>
       <c r="C7">
-        <v>0.001705337525604348</v>
+        <v>0.07860480962775748</v>
       </c>
       <c r="D7">
-        <v>0.002438310488570344</v>
+        <v>0.1547574249002926</v>
       </c>
       <c r="E7">
-        <v>0.002506614031273341</v>
+        <v>0.1469922324322779</v>
       </c>
       <c r="F7">
-        <v>0.002446211994137772</v>
+        <v>0.125091111847992</v>
       </c>
       <c r="G7">
-        <v>0.00240918597844188</v>
+        <v>0.1197709664456818</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -558,22 +558,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.001712895169634167</v>
+        <v>-0.278300058378309</v>
       </c>
       <c r="C8">
-        <v>0.001733627627265597</v>
+        <v>0.01637311927846087</v>
       </c>
       <c r="D8">
-        <v>0.001778545189702528</v>
+        <v>0.3317164157044292</v>
       </c>
       <c r="E8">
-        <v>0.001704704675613431</v>
+        <v>0.2933195555040136</v>
       </c>
       <c r="F8">
-        <v>0.002332725240465934</v>
+        <v>0.3306170417792785</v>
       </c>
       <c r="G8">
-        <v>0.002563475175618971</v>
+        <v>0.2861868670115636</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -581,22 +581,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.12785300655892</v>
+        <v>-0.4119665564960393</v>
       </c>
       <c r="C9">
-        <v>0.05126680303620785</v>
+        <v>0.4245327052892478</v>
       </c>
       <c r="D9">
-        <v>0.1771669108201992</v>
+        <v>0.1946146699564636</v>
       </c>
       <c r="E9">
-        <v>0.1482011292963012</v>
+        <v>0.6052535832037308</v>
       </c>
       <c r="F9">
-        <v>0.1239112942515316</v>
+        <v>0.5729424764499567</v>
       </c>
       <c r="G9">
-        <v>0.1436543248894008</v>
+        <v>0.2685091048162815</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -604,22 +604,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.001535710439205687</v>
+        <v>-0.01509983661791432</v>
       </c>
       <c r="C10">
-        <v>0.001679548011210466</v>
+        <v>0.009870752052946005</v>
       </c>
       <c r="D10">
-        <v>0.001734670008983523</v>
+        <v>0.01909074863969839</v>
       </c>
       <c r="E10">
-        <v>0.001772634657466247</v>
+        <v>0.0214123323078811</v>
       </c>
       <c r="F10">
-        <v>0.002322111945434828</v>
+        <v>0.0210485965093883</v>
       </c>
       <c r="G10">
-        <v>0.00212924492112536</v>
+        <v>0.01976123589006967</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -627,22 +627,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.02074498951298118</v>
+        <v>-0.2708490174958135</v>
       </c>
       <c r="C11">
-        <v>0.02144957930428232</v>
+        <v>0.1136326175598916</v>
       </c>
       <c r="D11">
-        <v>0.02263511690855038</v>
+        <v>0.2954612274120615</v>
       </c>
       <c r="E11">
-        <v>0.01724743035514191</v>
+        <v>0.3397481562631496</v>
       </c>
       <c r="F11">
-        <v>0.02259593634511897</v>
+        <v>0.4093245733364726</v>
       </c>
       <c r="G11">
-        <v>0.02486050374174502</v>
+        <v>0.2931586901344852</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -650,22 +650,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.1334955895137596</v>
+        <v>-0.2295863554950175</v>
       </c>
       <c r="C12">
-        <v>0.1240874296076769</v>
+        <v>0.2134908596425097</v>
       </c>
       <c r="D12">
-        <v>0.1586499620798938</v>
+        <v>0.2899909976960823</v>
       </c>
       <c r="E12">
-        <v>0.1261145451560819</v>
+        <v>0.3473573268786611</v>
       </c>
       <c r="F12">
-        <v>0.1427085118941706</v>
+        <v>0.1829004362986502</v>
       </c>
       <c r="G12">
-        <v>0.1310811399870823</v>
+        <v>0.3553651878407569</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -673,22 +673,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.115452434816138</v>
+        <v>-0.002637668860857637</v>
       </c>
       <c r="C13">
-        <v>0.07036389730903593</v>
+        <v>0.00223986378944937</v>
       </c>
       <c r="D13">
-        <v>0.1571851384830751</v>
+        <v>0.002899081081990662</v>
       </c>
       <c r="E13">
-        <v>0.1435147295133068</v>
+        <v>0.002572957068751477</v>
       </c>
       <c r="F13">
-        <v>0.1451151655199118</v>
+        <v>0.002328859222755838</v>
       </c>
       <c r="G13">
-        <v>0.1112266442228902</v>
+        <v>0.002648222010520983</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -696,22 +696,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.01808730234062399</v>
+        <v>-0.3755291038095847</v>
       </c>
       <c r="C14">
-        <v>0.01788031666460517</v>
+        <v>-0.08975204620661772</v>
       </c>
       <c r="D14">
-        <v>0.02087405273168843</v>
+        <v>0.2756220150599256</v>
       </c>
       <c r="E14">
-        <v>0.01629467377462087</v>
+        <v>0.7212570968016169</v>
       </c>
       <c r="F14">
-        <v>0.02451401734650545</v>
+        <v>0.2566046245003514</v>
       </c>
       <c r="G14">
-        <v>0.02180351034394768</v>
+        <v>0.5575801087223811</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -719,22 +719,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.002332086495663818</v>
+        <v>-0.02034133474951804</v>
       </c>
       <c r="C15">
-        <v>0.00187684896368504</v>
+        <v>0.01595927368440423</v>
       </c>
       <c r="D15">
-        <v>0.002639598069232811</v>
+        <v>0.0233174992761088</v>
       </c>
       <c r="E15">
-        <v>0.002084583438899428</v>
+        <v>0.02007278408944037</v>
       </c>
       <c r="F15">
-        <v>0.002636564290283909</v>
+        <v>0.02392592024968642</v>
       </c>
       <c r="G15">
-        <v>0.002641152132670745</v>
+        <v>0.02386520861457673</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -742,22 +742,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.01949352570996016</v>
+        <v>-0.002715434804595779</v>
       </c>
       <c r="C16">
-        <v>0.01181286376036102</v>
+        <v>0.001811702379433638</v>
       </c>
       <c r="D16">
-        <v>0.02425529435551087</v>
+        <v>0.003019065566101924</v>
       </c>
       <c r="E16">
-        <v>0.02369803197221569</v>
+        <v>0.002478255573674632</v>
       </c>
       <c r="F16">
-        <v>0.02325871615445863</v>
+        <v>0.002793118755989672</v>
       </c>
       <c r="G16">
-        <v>0.02095971730294622</v>
+        <v>0.002656129965466469</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -765,22 +765,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.002423610459734704</v>
+        <v>-0.01362590878666355</v>
       </c>
       <c r="C17">
-        <v>0.001945947927966671</v>
+        <v>0.008792544145859112</v>
       </c>
       <c r="D17">
-        <v>0.002931852033995645</v>
+        <v>0.0224752152531152</v>
       </c>
       <c r="E17">
-        <v>0.002288667720583117</v>
+        <v>0.02092465136247562</v>
       </c>
       <c r="F17">
-        <v>0.002656012549830904</v>
+        <v>0.01574821802710897</v>
       </c>
       <c r="G17">
-        <v>0.002267790173472782</v>
+        <v>0.01779271821367822</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -788,22 +788,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.02009700120240024</v>
+        <v>-0.1389691817556459</v>
       </c>
       <c r="C18">
-        <v>0.0169395512060524</v>
+        <v>0.1147606979152789</v>
       </c>
       <c r="D18">
-        <v>0.02315404605191071</v>
+        <v>0.1423347532343979</v>
       </c>
       <c r="E18">
-        <v>0.01994152602330271</v>
+        <v>0.1167869226859891</v>
       </c>
       <c r="F18">
-        <v>0.02328466448099444</v>
+        <v>0.1413521053127428</v>
       </c>
       <c r="G18">
-        <v>0.02360122585338253</v>
+        <v>0.1709164737365438</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -811,22 +811,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.270824186604375</v>
+        <v>-0.1026390275371009</v>
       </c>
       <c r="C19">
-        <v>0.1651416111490474</v>
+        <v>0.09524006291678191</v>
       </c>
       <c r="D19">
-        <v>0.3278777139253487</v>
+        <v>0.1254497340173229</v>
       </c>
       <c r="E19">
-        <v>0.2497944124601816</v>
+        <v>0.1413520295458782</v>
       </c>
       <c r="F19">
-        <v>0.3470618364261278</v>
+        <v>0.111298640661851</v>
       </c>
       <c r="G19">
-        <v>0.2130094901941093</v>
+        <v>0.1249266751263627</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -834,22 +834,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.02134422205159047</v>
+        <v>-0.1240316692164017</v>
       </c>
       <c r="C20">
-        <v>0.01573423775426953</v>
+        <v>0.08542710308288404</v>
       </c>
       <c r="D20">
-        <v>0.02280643019081463</v>
+        <v>0.151518437368932</v>
       </c>
       <c r="E20">
-        <v>0.02594663940932303</v>
+        <v>0.1298537782763984</v>
       </c>
       <c r="F20">
-        <v>0.0236182546913997</v>
+        <v>0.1388620751106042</v>
       </c>
       <c r="G20">
-        <v>0.02149157221416696</v>
+        <v>0.1537974724896238</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -857,22 +857,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.389006237916478</v>
+        <v>-0.3789492580331491</v>
       </c>
       <c r="C21">
-        <v>0.1289170664341558</v>
+        <v>0.2604446256595137</v>
       </c>
       <c r="D21">
-        <v>0.3752581039286413</v>
+        <v>0.49170983107616</v>
       </c>
       <c r="E21">
-        <v>0.5488544659522083</v>
+        <v>0.4818122467141462</v>
       </c>
       <c r="F21">
-        <v>0.459986140998429</v>
+        <v>0.2252478965132796</v>
       </c>
       <c r="G21">
-        <v>0.4038269464206842</v>
+        <v>0.4662523709755294</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -880,22 +880,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.02074096137297452</v>
+        <v>-0.2756339946606363</v>
       </c>
       <c r="C22">
-        <v>0.01421023291773266</v>
+        <v>0.222934539824834</v>
       </c>
       <c r="D22">
-        <v>0.02719287207643255</v>
+        <v>0.202703173470845</v>
       </c>
       <c r="E22">
-        <v>0.02185903174561598</v>
+        <v>0.2472790505705103</v>
       </c>
       <c r="F22">
-        <v>0.02208145068642859</v>
+        <v>0.4323740315369369</v>
       </c>
       <c r="G22">
-        <v>0.02214400496205677</v>
+        <v>0.256708268521036</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.01441209827096794</v>
+        <v>-0.2951741278468404</v>
       </c>
       <c r="C23">
-        <v>0.01343054653574832</v>
+        <v>0.1372468577569519</v>
       </c>
       <c r="D23">
-        <v>0.01873110897673044</v>
+        <v>0.2643763720936074</v>
       </c>
       <c r="E23">
-        <v>0.02039151043971214</v>
+        <v>0.3266835694741226</v>
       </c>
       <c r="F23">
-        <v>0.020465453098284</v>
+        <v>0.2959981472395366</v>
       </c>
       <c r="G23">
-        <v>0.01729807307373307</v>
+        <v>0.3851275342885022</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -926,22 +926,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.4307983201317091</v>
+        <v>-0.4247718692317976</v>
       </c>
       <c r="C24">
-        <v>0.08136552300040382</v>
+        <v>0.1719324565747128</v>
       </c>
       <c r="D24">
-        <v>0.2523488475604309</v>
+        <v>0.2750594986970211</v>
       </c>
       <c r="E24">
-        <v>0.5175380462761404</v>
+        <v>0.7910308732467836</v>
       </c>
       <c r="F24">
-        <v>0.4020992750873046</v>
+        <v>0.1962823949667727</v>
       </c>
       <c r="G24">
-        <v>0.7460160580654159</v>
+        <v>0.7513112676116286</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -949,22 +949,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.4085810576030763</v>
+        <v>-0.3305142214748364</v>
       </c>
       <c r="C25">
-        <v>0.2645317595873043</v>
+        <v>0.345630695966772</v>
       </c>
       <c r="D25">
-        <v>0.3984537964608196</v>
+        <v>0.05285836271637989</v>
       </c>
       <c r="E25">
-        <v>0.4032442432391016</v>
+        <v>0.5723951608219489</v>
       </c>
       <c r="F25">
-        <v>0.2806546089199569</v>
+        <v>0.5322306064928982</v>
       </c>
       <c r="G25">
-        <v>0.7214970800791957</v>
+        <v>0.304736821018709</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -972,22 +972,22 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.02108094228315547</v>
+        <v>-0.002431635360225932</v>
       </c>
       <c r="C26">
-        <v>0.01677439837136085</v>
+        <v>0.001914863803553187</v>
       </c>
       <c r="D26">
-        <v>0.02395949501441671</v>
+        <v>0.003065912808679753</v>
       </c>
       <c r="E26">
-        <v>0.02019865712309242</v>
+        <v>0.00209889266491192</v>
       </c>
       <c r="F26">
-        <v>0.0262276712019087</v>
+        <v>0.002340931009321903</v>
       </c>
       <c r="G26">
-        <v>0.02173387921783956</v>
+        <v>0.002612943468876879</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -995,22 +995,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.5378737732706291</v>
+        <v>-0.2361366425076429</v>
       </c>
       <c r="C27">
-        <v>0.2522827039376506</v>
+        <v>0.0330016992727452</v>
       </c>
       <c r="D27">
-        <v>0.1435613734684505</v>
+        <v>0.2355473748716272</v>
       </c>
       <c r="E27">
-        <v>0.6180850783619239</v>
+        <v>0.3225152737644927</v>
       </c>
       <c r="F27">
-        <v>0.7290494981518928</v>
+        <v>0.3355625725066188</v>
       </c>
       <c r="G27">
-        <v>0.4966798404537756</v>
+        <v>0.3157065063888486</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1018,22 +1018,22 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.3791529456960747</v>
+        <v>-0.02276778804525315</v>
       </c>
       <c r="C28">
-        <v>0.3002485779010973</v>
+        <v>0.01938749833074109</v>
       </c>
       <c r="D28">
-        <v>0.1784045972572129</v>
+        <v>0.02555210800719331</v>
       </c>
       <c r="E28">
-        <v>0.4477335126636647</v>
+        <v>0.02488618751763698</v>
       </c>
       <c r="F28">
-        <v>0.3146457078338988</v>
+        <v>0.02123006159763959</v>
       </c>
       <c r="G28">
-        <v>0.5873789703330671</v>
+        <v>0.02303432432608121</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1041,22 +1041,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.01708749531437248</v>
+        <v>-0.3189824793774831</v>
       </c>
       <c r="C29">
-        <v>0.01346661952629982</v>
+        <v>0.1586659482283203</v>
       </c>
       <c r="D29">
-        <v>0.02205858019947866</v>
+        <v>0.3734794223107006</v>
       </c>
       <c r="E29">
-        <v>0.02219256899316912</v>
+        <v>0.4842730053096023</v>
       </c>
       <c r="F29">
-        <v>0.02114873226561135</v>
+        <v>0.2682708263033829</v>
       </c>
       <c r="G29">
-        <v>0.01910929842993009</v>
+        <v>0.5010360018978147</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1064,22 +1064,22 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.02724650634716231</v>
+        <v>-0.3234820031617856</v>
       </c>
       <c r="C30">
-        <v>0.01662654570374191</v>
+        <v>0.1217316911061975</v>
       </c>
       <c r="D30">
-        <v>0.0282360743350431</v>
+        <v>0.4322927787693103</v>
       </c>
       <c r="E30">
-        <v>0.029236964331128</v>
+        <v>0.4256274818436433</v>
       </c>
       <c r="F30">
-        <v>0.02560749067243602</v>
+        <v>0.1416752405790667</v>
       </c>
       <c r="G30">
-        <v>0.02344504054707123</v>
+        <v>0.6552377673859864</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1087,22 +1087,22 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.2892194667292604</v>
+        <v>-0.09746382459794675</v>
       </c>
       <c r="C31">
-        <v>0.1462896732089153</v>
+        <v>0.056502328233695</v>
       </c>
       <c r="D31">
-        <v>0.2925513245927145</v>
+        <v>0.1210232506916326</v>
       </c>
       <c r="E31">
-        <v>0.4219022972220262</v>
+        <v>0.1231660965230506</v>
       </c>
       <c r="F31">
-        <v>0.2797212668653859</v>
+        <v>0.1399858386909283</v>
       </c>
       <c r="G31">
-        <v>0.2715590422848536</v>
+        <v>0.1388623339067802</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1110,22 +1110,22 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.4801569527167369</v>
+        <v>-0.3716346947199214</v>
       </c>
       <c r="C32">
-        <v>0.1179970866298414</v>
+        <v>0.1843103868723633</v>
       </c>
       <c r="D32">
-        <v>0.6051711577511072</v>
+        <v>0.1535089719010281</v>
       </c>
       <c r="E32">
-        <v>0.4217369870268856</v>
+        <v>0.8201026896009432</v>
       </c>
       <c r="F32">
-        <v>-0.2640911577900457</v>
+        <v>0.1446758941777942</v>
       </c>
       <c r="G32">
-        <v>1.24646815054181</v>
+        <v>0.6147401311122374</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1133,22 +1133,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.0167821666770781</v>
+        <v>-0.2792322730947832</v>
       </c>
       <c r="C33">
-        <v>0.01658740077724937</v>
+        <v>0.1091991500155843</v>
       </c>
       <c r="D33">
-        <v>0.0224707590544293</v>
+        <v>0.2249966063278385</v>
       </c>
       <c r="E33">
-        <v>0.02013364257239978</v>
+        <v>0.3174217556050652</v>
       </c>
       <c r="F33">
-        <v>0.01893016202609472</v>
+        <v>0.431399940405415</v>
       </c>
       <c r="G33">
-        <v>0.01986299248071034</v>
+        <v>0.3489324554649502</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1156,22 +1156,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.01683196693141319</v>
+        <v>-0.4116404070235193</v>
       </c>
       <c r="C34">
-        <v>0.01705068577704892</v>
+        <v>0.2429904356255218</v>
       </c>
       <c r="D34">
-        <v>0.02280031960433501</v>
+        <v>0.3304800048541052</v>
       </c>
       <c r="E34">
-        <v>0.01767547733726091</v>
+        <v>0.3562772202470156</v>
       </c>
       <c r="F34">
-        <v>0.02076801879875178</v>
+        <v>0.4591014439337217</v>
       </c>
       <c r="G34">
-        <v>0.01970105126965703</v>
+        <v>0.440212444292324</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1179,22 +1179,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.02106290178417706</v>
+        <v>-0.3055764605117903</v>
       </c>
       <c r="C35">
-        <v>0.01503317164241233</v>
+        <v>0.1666200654971212</v>
       </c>
       <c r="D35">
-        <v>0.02308102693589322</v>
+        <v>0.2993112853621928</v>
       </c>
       <c r="E35">
-        <v>0.01857406461666966</v>
+        <v>0.4119007971684816</v>
       </c>
       <c r="F35">
-        <v>0.02638859749628333</v>
+        <v>0.2895701920863424</v>
       </c>
       <c r="G35">
-        <v>0.02518194682930449</v>
+        <v>0.2960487978178775</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1202,22 +1202,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.3885166708778053</v>
+        <v>-0.2693311792703436</v>
       </c>
       <c r="C36">
-        <v>0.280554827541811</v>
+        <v>0.1638772535346167</v>
       </c>
       <c r="D36">
-        <v>0.2145092625303631</v>
+        <v>0.2478517576569012</v>
       </c>
       <c r="E36">
-        <v>0.3733764666149476</v>
+        <v>0.3058208925145282</v>
       </c>
       <c r="F36">
-        <v>0.6847059319297036</v>
+        <v>0.3000562077063748</v>
       </c>
       <c r="G36">
-        <v>0.4840183605694483</v>
+        <v>0.3506011454241688</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1225,22 +1225,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.001560443163706334</v>
+        <v>-0.2621461684470802</v>
       </c>
       <c r="C37">
-        <v>0.001329101112681366</v>
+        <v>0.281939967812892</v>
       </c>
       <c r="D37">
-        <v>0.002287902709955097</v>
+        <v>0.1787600676945599</v>
       </c>
       <c r="E37">
-        <v>0.001581997793980479</v>
+        <v>0.3243742634706827</v>
       </c>
       <c r="F37">
-        <v>0.002272974381750687</v>
+        <v>0.2779648236131992</v>
       </c>
       <c r="G37">
-        <v>0.002101977235026527</v>
+        <v>0.2948436126030099</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1248,22 +1248,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.01975904520832482</v>
+        <v>-0.1237508897911968</v>
       </c>
       <c r="C38">
-        <v>0.01810405993074575</v>
+        <v>0.1069405334823369</v>
       </c>
       <c r="D38">
-        <v>0.02405350924606961</v>
+        <v>0.1243829749893536</v>
       </c>
       <c r="E38">
-        <v>0.01781143230702721</v>
+        <v>0.1493503772826838</v>
       </c>
       <c r="F38">
-        <v>0.02467143294341508</v>
+        <v>0.1373080707048285</v>
       </c>
       <c r="G38">
-        <v>0.02110930141996192</v>
+        <v>0.1453243570127105</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1271,22 +1271,22 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.01533407885344532</v>
+        <v>-0.3561511268880654</v>
       </c>
       <c r="C39">
-        <v>0.01081166497669299</v>
+        <v>0.06048260386729919</v>
       </c>
       <c r="D39">
-        <v>0.02200475581347823</v>
+        <v>0.3780131149290444</v>
       </c>
       <c r="E39">
-        <v>0.01806430525404394</v>
+        <v>0.4927270186728175</v>
       </c>
       <c r="F39">
-        <v>0.02111376407594548</v>
+        <v>0.2510630325446644</v>
       </c>
       <c r="G39">
-        <v>0.01983269096935198</v>
+        <v>0.451103511878077</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1294,22 +1294,22 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.01853258057639775</v>
+        <v>-0.3530757620078129</v>
       </c>
       <c r="C40">
-        <v>0.01298628241629173</v>
+        <v>0.5902932182308315</v>
       </c>
       <c r="D40">
-        <v>0.02428800266415984</v>
+        <v>0.1080707535106451</v>
       </c>
       <c r="E40">
-        <v>0.01809751913020607</v>
+        <v>0.386265861137104</v>
       </c>
       <c r="F40">
-        <v>0.02308299744684511</v>
+        <v>0.2999249740208962</v>
       </c>
       <c r="G40">
-        <v>0.02271728278865386</v>
+        <v>0.4781311598079699</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1317,22 +1317,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.1274947396867121</v>
+        <v>-0.3036015285467623</v>
       </c>
       <c r="C41">
-        <v>0.07667091022222282</v>
+        <v>0.173978029072061</v>
       </c>
       <c r="D41">
-        <v>0.1406075359689427</v>
+        <v>0.2914261255386774</v>
       </c>
       <c r="E41">
-        <v>0.1547754797717655</v>
+        <v>0.5586378141499463</v>
       </c>
       <c r="F41">
-        <v>0.136797479344314</v>
+        <v>0.1691037406007676</v>
       </c>
       <c r="G41">
-        <v>0.1482204773625304</v>
+        <v>0.5806088914200465</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1340,22 +1340,22 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.5118673022035445</v>
+        <v>-0.01762741325971207</v>
       </c>
       <c r="C42">
-        <v>0.4114637298706268</v>
+        <v>0.01491647251652878</v>
       </c>
       <c r="D42">
-        <v>0.2940388431352547</v>
+        <v>0.02392682375953439</v>
       </c>
       <c r="E42">
-        <v>0.5857926627167487</v>
+        <v>0.01949843986110954</v>
       </c>
       <c r="F42">
-        <v>0.4639541272223023</v>
+        <v>0.02138466635378755</v>
       </c>
       <c r="G42">
-        <v>0.5363055555431494</v>
+        <v>0.02008168199584828</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1363,22 +1363,22 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.002044778574593493</v>
+        <v>-0.304930822367605</v>
       </c>
       <c r="C43">
-        <v>0.001345444423427642</v>
+        <v>0.1477679120051047</v>
       </c>
       <c r="D43">
-        <v>0.0023791634789998</v>
+        <v>0.300828861964132</v>
       </c>
       <c r="E43">
-        <v>0.00161589049706663</v>
+        <v>0.3266719407565767</v>
       </c>
       <c r="F43">
-        <v>0.002951468635202403</v>
+        <v>0.2415632131816057</v>
       </c>
       <c r="G43">
-        <v>0.002505447602667091</v>
+        <v>0.3900280596508807</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1386,22 +1386,22 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.02847587035808665</v>
+        <v>-0.4618203401512772</v>
       </c>
       <c r="C44">
-        <v>0.02234855687959161</v>
+        <v>0.1653014812538815</v>
       </c>
       <c r="D44">
-        <v>0.02502073007162909</v>
+        <v>0.3654376588509899</v>
       </c>
       <c r="E44">
-        <v>0.02828096140383066</v>
+        <v>0.6601954196528887</v>
       </c>
       <c r="F44">
-        <v>0.02866005368987451</v>
+        <v>0.5577440874668935</v>
       </c>
       <c r="G44">
-        <v>0.02279155666314955</v>
+        <v>0.3801773944283168</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1409,22 +1409,22 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.2127888452682849</v>
+        <v>-0.01943579660432547</v>
       </c>
       <c r="C45">
-        <v>0.1355208683857864</v>
+        <v>0.02013345076831407</v>
       </c>
       <c r="D45">
-        <v>0.3251279189807288</v>
+        <v>0.02449750702538699</v>
       </c>
       <c r="E45">
-        <v>0.269643738537532</v>
+        <v>0.02041905783383449</v>
       </c>
       <c r="F45">
-        <v>0.2815786981813951</v>
+        <v>0.02086641490938732</v>
       </c>
       <c r="G45">
-        <v>0.2030880255327461</v>
+        <v>0.01970871322242242</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1432,22 +1432,22 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.3319733970334063</v>
+        <v>-0.305188723977717</v>
       </c>
       <c r="C46">
-        <v>0.4218482848643361</v>
+        <v>0.2976613420224866</v>
       </c>
       <c r="D46">
-        <v>0.1508194336401417</v>
+        <v>0.4290052499771319</v>
       </c>
       <c r="E46">
-        <v>0.4647941312813818</v>
+        <v>0.3570389484481269</v>
       </c>
       <c r="F46">
-        <v>0.3504508960100242</v>
+        <v>0.3021024249680711</v>
       </c>
       <c r="G46">
-        <v>0.2800839550810155</v>
+        <v>0.2046298291818797</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1455,22 +1455,22 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.3685683670930144</v>
+        <v>-0.4053204274847153</v>
       </c>
       <c r="C47">
-        <v>-0.02101507524870003</v>
+        <v>0.3725778397300176</v>
       </c>
       <c r="D47">
-        <v>0.3809028898641464</v>
+        <v>0.2862542838065844</v>
       </c>
       <c r="E47">
-        <v>0.1761416084755345</v>
+        <v>0.6820116809720367</v>
       </c>
       <c r="F47">
-        <v>0.6558842084410244</v>
+        <v>-0.09571618296779186</v>
       </c>
       <c r="G47">
-        <v>0.5116642220810044</v>
+        <v>0.9465411933213337</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1478,22 +1478,22 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.4404327520887814</v>
+        <v>-0.4648129105512252</v>
       </c>
       <c r="C48">
-        <v>-0.01603931137896189</v>
+        <v>0.166207336736305</v>
       </c>
       <c r="D48">
-        <v>0.4219816085238529</v>
+        <v>0.1850948805252396</v>
       </c>
       <c r="E48">
-        <v>0.5874541592656722</v>
+        <v>0.6513705543218367</v>
       </c>
       <c r="F48">
-        <v>0.1960762880642011</v>
+        <v>0.7142855099436661</v>
       </c>
       <c r="G48">
-        <v>0.8085189687706782</v>
+        <v>0.4009653735633052</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1501,22 +1501,22 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.01627151045781938</v>
+        <v>-0.1269902548533428</v>
       </c>
       <c r="C49">
-        <v>0.01271622357029287</v>
+        <v>0.07550927517719781</v>
       </c>
       <c r="D49">
-        <v>0.01964901552470823</v>
+        <v>0.1153187801645002</v>
       </c>
       <c r="E49">
-        <v>0.01932267891906673</v>
+        <v>0.1484637745754756</v>
       </c>
       <c r="F49">
-        <v>0.02416170832539908</v>
+        <v>0.140611611801525</v>
       </c>
       <c r="G49">
-        <v>0.01957824035473547</v>
+        <v>0.1724475238655804</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1524,22 +1524,22 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.3742660556960496</v>
+        <v>-0.3538820616672544</v>
       </c>
       <c r="C50">
-        <v>0.1221189901755875</v>
+        <v>0.3120171944737082</v>
       </c>
       <c r="D50">
-        <v>0.3013395546067725</v>
+        <v>0.4230862383250932</v>
       </c>
       <c r="E50">
-        <v>0.4125528059702411</v>
+        <v>0.3726065993642535</v>
       </c>
       <c r="F50">
-        <v>0.2435077808799472</v>
+        <v>0.3077106418250133</v>
       </c>
       <c r="G50">
-        <v>0.7552550417796797</v>
+        <v>0.4389789849843227</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1547,22 +1547,22 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.261944211190122</v>
+        <v>-0.002391908770089873</v>
       </c>
       <c r="C51">
-        <v>0.173921091259113</v>
+        <v>0.00206056545925729</v>
       </c>
       <c r="D51">
-        <v>0.290968352826801</v>
+        <v>0.002416808256181346</v>
       </c>
       <c r="E51">
-        <v>0.3470120551603079</v>
+        <v>0.002439326301558134</v>
       </c>
       <c r="F51">
-        <v>0.2535340817029319</v>
+        <v>0.002502284957730319</v>
       </c>
       <c r="G51">
-        <v>0.2770148449089258</v>
+        <v>0.002689528441256519</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1570,22 +1570,22 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.2909781349697347</v>
+        <v>-0.4133977787823695</v>
       </c>
       <c r="C52">
-        <v>0.272886207693641</v>
+        <v>0.3794229032191103</v>
       </c>
       <c r="D52">
-        <v>0.03374558229784617</v>
+        <v>0.2302056569645581</v>
       </c>
       <c r="E52">
-        <v>0.3610891816500761</v>
+        <v>0.475482633717371</v>
       </c>
       <c r="F52">
-        <v>0.5502716633009135</v>
+        <v>0.4869354650779598</v>
       </c>
       <c r="G52">
-        <v>0.4483895653085183</v>
+        <v>0.464987732040493</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1593,22 +1593,22 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.3113403491964732</v>
+        <v>-0.02194963465777474</v>
       </c>
       <c r="C53">
-        <v>0.2053128898275851</v>
+        <v>0.01190747905758312</v>
       </c>
       <c r="D53">
-        <v>0.2746181651427062</v>
+        <v>0.02653581454809963</v>
       </c>
       <c r="E53">
-        <v>0.3961325176857987</v>
+        <v>0.02027348157061789</v>
       </c>
       <c r="F53">
-        <v>0.2215448807073106</v>
+        <v>0.02599163844507174</v>
       </c>
       <c r="G53">
-        <v>0.3491356177906618</v>
+        <v>0.02448523773407471</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1616,22 +1616,22 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.001647894637591637</v>
+        <v>-0.2865892786103068</v>
       </c>
       <c r="C54">
-        <v>0.001882450531807533</v>
+        <v>0.06760134608079313</v>
       </c>
       <c r="D54">
-        <v>0.002050227008522908</v>
+        <v>0.29123798042534</v>
       </c>
       <c r="E54">
-        <v>0.001252130963475953</v>
+        <v>0.3731785864594494</v>
       </c>
       <c r="F54">
-        <v>0.002431098318108042</v>
+        <v>0.2731583046338277</v>
       </c>
       <c r="G54">
-        <v>0.002245488125968512</v>
+        <v>0.3416936824522803</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1639,22 +1639,22 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.02101611698163243</v>
+        <v>-0.01859617746332146</v>
       </c>
       <c r="C55">
-        <v>0.01425049314226045</v>
+        <v>0.01374862891389704</v>
       </c>
       <c r="D55">
-        <v>0.02731074088150927</v>
+        <v>0.01811732724985817</v>
       </c>
       <c r="E55">
-        <v>0.02186259773582741</v>
+        <v>0.02119055441550847</v>
       </c>
       <c r="F55">
-        <v>0.02214319659455926</v>
+        <v>0.02455590391675678</v>
       </c>
       <c r="G55">
-        <v>0.02261651423274175</v>
+        <v>0.02419626249212813</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1662,22 +1662,22 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.1569557383307184</v>
+        <v>-0.01583172303431896</v>
       </c>
       <c r="C56">
-        <v>0.1272912849066879</v>
+        <v>0.01258593047441207</v>
       </c>
       <c r="D56">
-        <v>0.1521930037059447</v>
+        <v>0.02139549929634543</v>
       </c>
       <c r="E56">
-        <v>0.1460770712409362</v>
+        <v>0.01760999857355259</v>
       </c>
       <c r="F56">
-        <v>0.1414727883023673</v>
+        <v>0.02066637070303388</v>
       </c>
       <c r="G56">
-        <v>0.1606708658571112</v>
+        <v>0.02201073984568091</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1685,22 +1685,22 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.3211246830872353</v>
+        <v>-0.108859850526653</v>
       </c>
       <c r="C57">
-        <v>0.430345323397647</v>
+        <v>0.1206277113077228</v>
       </c>
       <c r="D57">
-        <v>0.1887641312832165</v>
+        <v>0.1324949558594013</v>
       </c>
       <c r="E57">
-        <v>0.3933828094284728</v>
+        <v>0.1006889761841605</v>
       </c>
       <c r="F57">
-        <v>0.4662990316254477</v>
+        <v>0.1409198307539994</v>
       </c>
       <c r="G57">
-        <v>0.2584424295072337</v>
+        <v>0.128621246540297</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1708,22 +1708,22 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.4576549922788037</v>
+        <v>-0.1421039371612243</v>
       </c>
       <c r="C58">
-        <v>0.04786920119443086</v>
+        <v>0.1039983366999649</v>
       </c>
       <c r="D58">
-        <v>0.4871150532284644</v>
+        <v>0.1732936016616953</v>
       </c>
       <c r="E58">
-        <v>0.8775014697902989</v>
+        <v>0.1606282689849526</v>
       </c>
       <c r="F58">
-        <v>0.3453013183332624</v>
+        <v>0.1459821412211726</v>
       </c>
       <c r="G58">
-        <v>0.3951474577255528</v>
+        <v>0.1198075252601756</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1731,22 +1731,22 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.3165191727770514</v>
+        <v>-0.02221279623371097</v>
       </c>
       <c r="C59">
-        <v>0.1853743283537457</v>
+        <v>0.01575274510060854</v>
       </c>
       <c r="D59">
-        <v>0.3930549217946078</v>
+        <v>0.02683612804325369</v>
       </c>
       <c r="E59">
-        <v>0.2932778433741068</v>
+        <v>0.0180126278225556</v>
       </c>
       <c r="F59">
-        <v>0.2610119478833453</v>
+        <v>0.02768852150251939</v>
       </c>
       <c r="G59">
-        <v>0.3961053639525524</v>
+        <v>0.02229160159467027</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1754,22 +1754,22 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.1160858140973858</v>
+        <v>-0.3180901453373978</v>
       </c>
       <c r="C60">
-        <v>0.1259621382393216</v>
+        <v>0.199501096353268</v>
       </c>
       <c r="D60">
-        <v>0.1343845923441275</v>
+        <v>0.2747031459287515</v>
       </c>
       <c r="E60">
-        <v>0.09841948300528146</v>
+        <v>0.3532307123197563</v>
       </c>
       <c r="F60">
-        <v>0.1401676884981817</v>
+        <v>0.2551597028595224</v>
       </c>
       <c r="G60">
-        <v>0.1380056743165983</v>
+        <v>0.5351132177726131</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1777,22 +1777,22 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.001716400531476835</v>
+        <v>-0.2837518287400264</v>
       </c>
       <c r="C61">
-        <v>0.001733985718482566</v>
+        <v>-0.0181653845983496</v>
       </c>
       <c r="D61">
-        <v>0.002303191758250045</v>
+        <v>0.3731664132250336</v>
       </c>
       <c r="E61">
-        <v>0.001648545654026735</v>
+        <v>0.2355820117437799</v>
       </c>
       <c r="F61">
-        <v>0.002185075087538909</v>
+        <v>0.4320636624460149</v>
       </c>
       <c r="G61">
-        <v>0.002324687897862724</v>
+        <v>0.5140861025878461</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1800,22 +1800,22 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.3371203974574547</v>
+        <v>-0.5627619474008105</v>
       </c>
       <c r="C62">
-        <v>0.1489165025671015</v>
+        <v>0.4902376309676298</v>
       </c>
       <c r="D62">
-        <v>0.2506046923097557</v>
+        <v>0.5642784233617314</v>
       </c>
       <c r="E62">
-        <v>0.2699425908203408</v>
+        <v>0.5901865877011897</v>
       </c>
       <c r="F62">
-        <v>0.478764466170985</v>
+        <v>-0.1840255735132936</v>
       </c>
       <c r="G62">
-        <v>0.6011742191242456</v>
+        <v>1.032441136556814</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1823,22 +1823,22 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.02036545538620595</v>
+        <v>-0.001944933037620067</v>
       </c>
       <c r="C63">
-        <v>0.01224438110711847</v>
+        <v>0.001069695488789943</v>
       </c>
       <c r="D63">
-        <v>0.02363186885348775</v>
+        <v>0.002777668494286702</v>
       </c>
       <c r="E63">
-        <v>0.02296720964898097</v>
+        <v>0.001776815587240882</v>
       </c>
       <c r="F63">
-        <v>0.0248905861410487</v>
+        <v>0.002373571540317634</v>
       </c>
       <c r="G63">
-        <v>0.02240823099532697</v>
+        <v>0.002507897003105782</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1846,22 +1846,22 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.1906215582795277</v>
+        <v>-0.3762217828466729</v>
       </c>
       <c r="C64">
-        <v>0.1564888471883182</v>
+        <v>0.2546840764893767</v>
       </c>
       <c r="D64">
-        <v>0.1814484066749693</v>
+        <v>0.382083308239814</v>
       </c>
       <c r="E64">
-        <v>0.307448163738089</v>
+        <v>0.5111202403924004</v>
       </c>
       <c r="F64">
-        <v>0.2845682953272637</v>
+        <v>0.3375090302116389</v>
       </c>
       <c r="G64">
-        <v>0.2520739269282694</v>
+        <v>0.4711831537283578</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1869,22 +1869,22 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.3700281953599205</v>
+        <v>-0.002804213944554567</v>
       </c>
       <c r="C65">
-        <v>0.205853874435991</v>
+        <v>0.002024199594793895</v>
       </c>
       <c r="D65">
-        <v>0.6064815856539894</v>
+        <v>0.003253960778758677</v>
       </c>
       <c r="E65">
-        <v>0.4277170408719259</v>
+        <v>0.002556469024686564</v>
       </c>
       <c r="F65">
-        <v>0.2427281919876248</v>
+        <v>0.002346730765989032</v>
       </c>
       <c r="G65">
-        <v>0.3757852438660956</v>
+        <v>0.002777414495380527</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1892,22 +1892,22 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.01887626743270128</v>
+        <v>-0.02147904484192243</v>
       </c>
       <c r="C66">
-        <v>0.01678954219061628</v>
+        <v>0.01452933489594053</v>
       </c>
       <c r="D66">
-        <v>0.02406263764571511</v>
+        <v>0.02335179909099827</v>
       </c>
       <c r="E66">
-        <v>0.01872028018003685</v>
+        <v>0.02378427437248131</v>
       </c>
       <c r="F66">
-        <v>0.02286624864054853</v>
+        <v>0.02352078679234915</v>
       </c>
       <c r="G66">
-        <v>0.02107256944715418</v>
+        <v>0.02450997834749273</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1915,22 +1915,22 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.3645508228150791</v>
+        <v>-0.00225263953901811</v>
       </c>
       <c r="C67">
-        <v>0.3988281469580928</v>
+        <v>0.001423998945166174</v>
       </c>
       <c r="D67">
-        <v>0.1022205781286903</v>
+        <v>0.002753766671762649</v>
       </c>
       <c r="E67">
-        <v>0.3325869922910473</v>
+        <v>0.002071287407965719</v>
       </c>
       <c r="F67">
-        <v>0.5450353909351042</v>
+        <v>0.002873395482267093</v>
       </c>
       <c r="G67">
-        <v>0.3381753922306326</v>
+        <v>0.002377642049216854</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1938,22 +1938,22 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.02254171203264766</v>
+        <v>-0.001593706803154571</v>
       </c>
       <c r="C68">
-        <v>0.01849459850665119</v>
+        <v>0.001442984391802706</v>
       </c>
       <c r="D68">
-        <v>0.02481267422302908</v>
+        <v>0.002071404321529447</v>
       </c>
       <c r="E68">
-        <v>0.02047648438674488</v>
+        <v>0.001706418468005928</v>
       </c>
       <c r="F68">
-        <v>0.02393834635580247</v>
+        <v>0.002256210879157393</v>
       </c>
       <c r="G68">
-        <v>0.02546074685610882</v>
+        <v>0.002283533256058544</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1961,22 +1961,22 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.2437677957872275</v>
+        <v>-0.02128842603347274</v>
       </c>
       <c r="C69">
-        <v>0.1942756332202392</v>
+        <v>0.01716822160621815</v>
       </c>
       <c r="D69">
-        <v>0.1850469487795048</v>
+        <v>0.02691725842513566</v>
       </c>
       <c r="E69">
-        <v>0.3234420425361236</v>
+        <v>0.01323620961536811</v>
       </c>
       <c r="F69">
-        <v>0.2770439550814036</v>
+        <v>0.02417567874133148</v>
       </c>
       <c r="G69">
-        <v>0.3193886672890819</v>
+        <v>0.02603890239761707</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1984,22 +1984,22 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.2990710672543722</v>
+        <v>-0.233795058014483</v>
       </c>
       <c r="C70">
-        <v>0.291738709009829</v>
+        <v>0.08201954627218574</v>
       </c>
       <c r="D70">
-        <v>0.1931904574305102</v>
+        <v>0.2337902800923308</v>
       </c>
       <c r="E70">
-        <v>0.3320929675959665</v>
+        <v>0.3864870999704672</v>
       </c>
       <c r="F70">
-        <v>0.3808444522665587</v>
+        <v>0.2771191295052472</v>
       </c>
       <c r="G70">
-        <v>0.3479871574291315</v>
+        <v>0.3916084024456039</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2007,22 +2007,22 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.0206306750049105</v>
+        <v>-0.02098429442398594</v>
       </c>
       <c r="C71">
-        <v>0.01576754909280375</v>
+        <v>0.01634267276236121</v>
       </c>
       <c r="D71">
-        <v>0.02346636598708281</v>
+        <v>0.0245367107012572</v>
       </c>
       <c r="E71">
-        <v>0.02595772502989917</v>
+        <v>0.02020115869434864</v>
       </c>
       <c r="F71">
-        <v>0.02158667119704936</v>
+        <v>0.02526226440709206</v>
       </c>
       <c r="G71">
-        <v>0.02099001111335996</v>
+        <v>0.02266591317765246</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2030,22 +2030,22 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.01902993688094451</v>
+        <v>-0.3042885616261951</v>
       </c>
       <c r="C72">
-        <v>0.01515311427375978</v>
+        <v>0.1643336058019621</v>
       </c>
       <c r="D72">
-        <v>0.02259171992491955</v>
+        <v>0.3307286067505795</v>
       </c>
       <c r="E72">
-        <v>0.01940381721207561</v>
+        <v>0.315381426025819</v>
       </c>
       <c r="F72">
-        <v>0.02360720409207907</v>
+        <v>0.312739845531307</v>
       </c>
       <c r="G72">
-        <v>0.02301542858447683</v>
+        <v>0.3010401660001124</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2053,22 +2053,22 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.002667523452376334</v>
+        <v>-0.3242469417199797</v>
       </c>
       <c r="C73">
-        <v>0.001696915639973273</v>
+        <v>0.2314665411076552</v>
       </c>
       <c r="D73">
-        <v>0.00293083795863018</v>
+        <v>-0.05733287158310896</v>
       </c>
       <c r="E73">
-        <v>0.002495005361513787</v>
+        <v>0.615823178034561</v>
       </c>
       <c r="F73">
-        <v>0.002840721878064318</v>
+        <v>0.4261153976336687</v>
       </c>
       <c r="G73">
-        <v>0.002653943514162529</v>
+        <v>0.6542693627648681</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2076,22 +2076,22 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.02017385011768962</v>
+        <v>-0.3739603768031646</v>
       </c>
       <c r="C74">
-        <v>0.01591031092461558</v>
+        <v>0.1942514560813787</v>
       </c>
       <c r="D74">
-        <v>0.02637239919229551</v>
+        <v>0.3676116597234461</v>
       </c>
       <c r="E74">
-        <v>0.02077315338648501</v>
+        <v>0.5235865292922792</v>
       </c>
       <c r="F74">
-        <v>0.02134899631025902</v>
+        <v>0.2716189448037009</v>
       </c>
       <c r="G74">
-        <v>0.02220188007463309</v>
+        <v>0.6450044510032593</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2099,22 +2099,22 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.02328346296494495</v>
+        <v>-0.4048002923027137</v>
       </c>
       <c r="C75">
-        <v>0.02094602734780797</v>
+        <v>0.1322831194897563</v>
       </c>
       <c r="D75">
-        <v>0.02354322581085076</v>
+        <v>0.1494660636445377</v>
       </c>
       <c r="E75">
-        <v>0.01954713731894429</v>
+        <v>0.4244013544407521</v>
       </c>
       <c r="F75">
-        <v>0.02446714874651086</v>
+        <v>0.4223068256988421</v>
       </c>
       <c r="G75">
-        <v>0.02661744415266713</v>
+        <v>0.7814463739186474</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2122,22 +2122,22 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.002490346597002289</v>
+        <v>-0.002522989400083693</v>
       </c>
       <c r="C76">
-        <v>0.001887414750321394</v>
+        <v>0.00193746338136698</v>
       </c>
       <c r="D76">
-        <v>0.002881228921598285</v>
+        <v>0.003101748538082539</v>
       </c>
       <c r="E76">
-        <v>0.002265904185668694</v>
+        <v>0.002644524974554046</v>
       </c>
       <c r="F76">
-        <v>0.002552315167351588</v>
+        <v>0.002511588510237795</v>
       </c>
       <c r="G76">
-        <v>0.002682496298235118</v>
+        <v>0.002112393363293906</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2145,22 +2145,22 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.01780525467893921</v>
+        <v>-0.2336501437200197</v>
       </c>
       <c r="C77">
-        <v>0.02101842353227061</v>
+        <v>0.08443527747339674</v>
       </c>
       <c r="D77">
-        <v>0.02391286724000673</v>
+        <v>0.1316528792956292</v>
       </c>
       <c r="E77">
-        <v>0.01637958484394587</v>
+        <v>0.2822276782971846</v>
       </c>
       <c r="F77">
-        <v>0.01958761976608102</v>
+        <v>0.2585947490620792</v>
       </c>
       <c r="G77">
-        <v>0.01991477444058492</v>
+        <v>0.4480801083916975</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2168,22 +2168,22 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.30545616118007</v>
+        <v>-0.01863904332856004</v>
       </c>
       <c r="C78">
-        <v>0.2437704179977548</v>
+        <v>0.01348155310202644</v>
       </c>
       <c r="D78">
-        <v>0.2083797603636665</v>
+        <v>0.02424068567983214</v>
       </c>
       <c r="E78">
-        <v>0.3938432995099826</v>
+        <v>0.01925121463255489</v>
       </c>
       <c r="F78">
-        <v>0.3246889631262639</v>
+        <v>0.02129664556133551</v>
       </c>
       <c r="G78">
-        <v>0.3940034633890993</v>
+        <v>0.02370175267927362</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2191,22 +2191,22 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.4700924290834668</v>
+        <v>-0.3984729608672279</v>
       </c>
       <c r="C79">
-        <v>0.3419854263897749</v>
+        <v>0.4327714871938474</v>
       </c>
       <c r="D79">
-        <v>0.6078064955163183</v>
+        <v>0.4132778826529918</v>
       </c>
       <c r="E79">
-        <v>0.6451740563480097</v>
+        <v>0.1670480970430571</v>
       </c>
       <c r="F79">
-        <v>0.2024739343573164</v>
+        <v>0.2864221590747926</v>
       </c>
       <c r="G79">
-        <v>0.3125804152072706</v>
+        <v>0.6434477559216784</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2214,22 +2214,22 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.0235212227684583</v>
+        <v>-0.3057352758851338</v>
       </c>
       <c r="C80">
-        <v>0.01970454177272981</v>
+        <v>0.06781353903699566</v>
       </c>
       <c r="D80">
-        <v>0.02768930724893474</v>
+        <v>0.3469670178427772</v>
       </c>
       <c r="E80">
-        <v>0.01977428108339621</v>
+        <v>0.316603867878457</v>
       </c>
       <c r="F80">
-        <v>0.02525461901652365</v>
+        <v>0.3327428099320872</v>
       </c>
       <c r="G80">
-        <v>0.02291790679562151</v>
+        <v>0.3404223207952227</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2237,22 +2237,22 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.3197027626229144</v>
+        <v>-0.157272063143622</v>
       </c>
       <c r="C81">
-        <v>0.1544351138185361</v>
+        <v>0.09746690624322722</v>
       </c>
       <c r="D81">
-        <v>0.2952477845221568</v>
+        <v>0.1789768496428958</v>
       </c>
       <c r="E81">
-        <v>0.4143216929280467</v>
+        <v>0.1515881172455157</v>
       </c>
       <c r="F81">
-        <v>0.3131542190288116</v>
+        <v>0.1758936747116164</v>
       </c>
       <c r="G81">
-        <v>0.2813315069420186</v>
+        <v>0.128394876183608</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2260,22 +2260,22 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.01948407272190523</v>
+        <v>-0.01714063532553432</v>
       </c>
       <c r="C82">
-        <v>0.01505304607752546</v>
+        <v>0.01655431973419453</v>
       </c>
       <c r="D82">
-        <v>0.02285168236101673</v>
+        <v>0.02234312116832359</v>
       </c>
       <c r="E82">
-        <v>0.0220820052654601</v>
+        <v>0.01744775348256849</v>
       </c>
       <c r="F82">
-        <v>0.02348366997927792</v>
+        <v>0.02370738741736525</v>
       </c>
       <c r="G82">
-        <v>0.02163161532434689</v>
+        <v>0.01858565234564462</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2283,22 +2283,22 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.3575996954223273</v>
+        <v>-0.4248818348838496</v>
       </c>
       <c r="C83">
-        <v>0.1218840095640986</v>
+        <v>0.3340175290863408</v>
       </c>
       <c r="D83">
-        <v>0.408359083342839</v>
+        <v>0.4596814986611197</v>
       </c>
       <c r="E83">
-        <v>0.5492722981680643</v>
+        <v>0.5283447962067864</v>
       </c>
       <c r="F83">
-        <v>0.1419753515021238</v>
+        <v>0.3520444537617458</v>
       </c>
       <c r="G83">
-        <v>0.4425461007914702</v>
+        <v>0.3985580563099314</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2306,22 +2306,22 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.01482392426002042</v>
+        <v>-0.02152930709733779</v>
       </c>
       <c r="C84">
-        <v>0.01395983400223066</v>
+        <v>0.01428687598821039</v>
       </c>
       <c r="D84">
-        <v>0.02052040976635934</v>
+        <v>0.02795257344147716</v>
       </c>
       <c r="E84">
-        <v>0.01653961421744884</v>
+        <v>0.0239885669054118</v>
       </c>
       <c r="F84">
-        <v>0.02208465123776696</v>
+        <v>0.02437697828621902</v>
       </c>
       <c r="G84">
-        <v>0.01858027558144707</v>
+        <v>0.01815065176695111</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2329,22 +2329,22 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.3453301451193442</v>
+        <v>-0.02649671545809888</v>
       </c>
       <c r="C85">
-        <v>0.3767103307081575</v>
+        <v>0.02296351222117431</v>
       </c>
       <c r="D85">
-        <v>-0.03687800020319046</v>
+        <v>0.03000184624096141</v>
       </c>
       <c r="E85">
-        <v>0.520592837701251</v>
+        <v>0.02245697443123671</v>
       </c>
       <c r="F85">
-        <v>0.3159940964783318</v>
+        <v>0.02236183555911853</v>
       </c>
       <c r="G85">
-        <v>0.6645066295403705</v>
+        <v>0.02474437763142843</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2352,22 +2352,22 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.0159804945448852</v>
+        <v>-0.38478033642281</v>
       </c>
       <c r="C86">
-        <v>0.009722909730299543</v>
+        <v>0.1820728708811258</v>
       </c>
       <c r="D86">
-        <v>0.02224247327731881</v>
+        <v>0.4057434202068433</v>
       </c>
       <c r="E86">
-        <v>0.01965267824890572</v>
+        <v>0.6422145182108225</v>
       </c>
       <c r="F86">
-        <v>0.02067801574202791</v>
+        <v>0.3853210165409107</v>
       </c>
       <c r="G86">
-        <v>0.02130967554331822</v>
+        <v>0.4157740717164765</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2375,22 +2375,22 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.4523001978849239</v>
+        <v>-0.001892410341105211</v>
       </c>
       <c r="C87">
-        <v>0.2853170188797484</v>
+        <v>0.001362878159944342</v>
       </c>
       <c r="D87">
-        <v>0.4518763424177433</v>
+        <v>0.002496807880232554</v>
       </c>
       <c r="E87">
-        <v>0.5879918774812303</v>
+        <v>0.002135381088878614</v>
       </c>
       <c r="F87">
-        <v>0.5265043487070382</v>
+        <v>0.002373132700624943</v>
       </c>
       <c r="G87">
-        <v>0.2631547742474395</v>
+        <v>0.002251119345882907</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2398,22 +2398,22 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.002828712091169543</v>
+        <v>-0.2448383531814531</v>
       </c>
       <c r="C88">
-        <v>0.00198742322683318</v>
+        <v>0.1920046494856967</v>
       </c>
       <c r="D88">
-        <v>0.002945259728438467</v>
+        <v>0.2357323486144546</v>
       </c>
       <c r="E88">
-        <v>0.001964479230586704</v>
+        <v>0.3782057966512059</v>
       </c>
       <c r="F88">
-        <v>0.003203974974109046</v>
+        <v>0.2457297012155088</v>
       </c>
       <c r="G88">
-        <v>0.00285658263462812</v>
+        <v>0.2486097587506875</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2421,22 +2421,22 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.3429080639497599</v>
+        <v>-0.01742276856382665</v>
       </c>
       <c r="C89">
-        <v>0.2469404067431873</v>
+        <v>0.01604915391795842</v>
       </c>
       <c r="D89">
-        <v>0.412948495643744</v>
+        <v>0.02156442688576209</v>
       </c>
       <c r="E89">
-        <v>0.5114103534681302</v>
+        <v>0.01837246990722398</v>
       </c>
       <c r="F89">
-        <v>0.1620749662801415</v>
+        <v>0.02292300702444169</v>
       </c>
       <c r="G89">
-        <v>0.4810236349302597</v>
+        <v>0.0205725085969757</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2444,22 +2444,22 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.3887626859240217</v>
+        <v>-0.1029859311458691</v>
       </c>
       <c r="C90">
-        <v>0.3557723935800301</v>
+        <v>0.07308272607910436</v>
       </c>
       <c r="D90">
-        <v>0.001950067136667756</v>
+        <v>0.1316471369208019</v>
       </c>
       <c r="E90">
-        <v>0.5656496251210457</v>
+        <v>0.1286587028970668</v>
       </c>
       <c r="F90">
-        <v>0.2503192385235652</v>
+        <v>0.1131988948108285</v>
       </c>
       <c r="G90">
-        <v>0.8080149098765812</v>
+        <v>0.1507239136264031</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2467,22 +2467,22 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.2674623612353107</v>
+        <v>-0.315657395529897</v>
       </c>
       <c r="C91">
-        <v>0.2975052713905992</v>
+        <v>0.2379190949242343</v>
       </c>
       <c r="D91">
-        <v>0.2923922691040649</v>
+        <v>0.2666072446915667</v>
       </c>
       <c r="E91">
-        <v>0.2819075977466753</v>
+        <v>0.4110963723879169</v>
       </c>
       <c r="F91">
-        <v>0.2450966395416171</v>
+        <v>0.2574430652158024</v>
       </c>
       <c r="G91">
-        <v>0.274233687430285</v>
+        <v>0.4325394558857426</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2490,22 +2490,22 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.2335200904450626</v>
+        <v>-0.002006998471618223</v>
       </c>
       <c r="C92">
-        <v>0.2301120709372882</v>
+        <v>0.001650383810827042</v>
       </c>
       <c r="D92">
-        <v>0.1476168603529439</v>
+        <v>0.002496551675711131</v>
       </c>
       <c r="E92">
-        <v>0.32873032905886</v>
+        <v>0.001813271872985002</v>
       </c>
       <c r="F92">
-        <v>0.2715773982439605</v>
+        <v>0.002374927867892289</v>
       </c>
       <c r="G92">
-        <v>0.3135242759367606</v>
+        <v>0.002628951133876904</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2513,22 +2513,22 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.2500205708322606</v>
+        <v>-0.3847409546897797</v>
       </c>
       <c r="C93">
-        <v>0.1472090801567001</v>
+        <v>0.16595446108762</v>
       </c>
       <c r="D93">
-        <v>0.1731078518101263</v>
+        <v>0.4197518735300501</v>
       </c>
       <c r="E93">
-        <v>0.3537224038255122</v>
+        <v>0.3198555531290112</v>
       </c>
       <c r="F93">
-        <v>0.3288730911847154</v>
+        <v>0.581242413512909</v>
       </c>
       <c r="G93">
-        <v>0.2876395267342791</v>
+        <v>0.3411062535667797</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2536,22 +2536,22 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.01788202855698932</v>
+        <v>-0.2720233180201646</v>
       </c>
       <c r="C94">
-        <v>0.01513904528323548</v>
+        <v>0.07057297080450912</v>
       </c>
       <c r="D94">
-        <v>0.02190237799173518</v>
+        <v>0.2771231084094393</v>
       </c>
       <c r="E94">
-        <v>0.01312771123854221</v>
+        <v>0.3296723856412405</v>
       </c>
       <c r="F94">
-        <v>0.02280234599302436</v>
+        <v>0.3782988416995168</v>
       </c>
       <c r="G94">
-        <v>0.02585399241118768</v>
+        <v>0.3006456364710897</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2559,22 +2559,22 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.0221867565440257</v>
+        <v>-0.1210513527876761</v>
       </c>
       <c r="C95">
-        <v>0.01563982003223123</v>
+        <v>0.09524527849710344</v>
       </c>
       <c r="D95">
-        <v>0.02718913124384286</v>
+        <v>0.1333896283355921</v>
       </c>
       <c r="E95">
-        <v>0.01977663367718015</v>
+        <v>0.1222061212326996</v>
       </c>
       <c r="F95">
-        <v>0.0227713671227119</v>
+        <v>0.1439846581644597</v>
       </c>
       <c r="G95">
-        <v>0.02576552852354816</v>
+        <v>0.1545861053373137</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2582,22 +2582,22 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.1252272991810882</v>
+        <v>-0.5960931639237274</v>
       </c>
       <c r="C96">
-        <v>0.07399974787012308</v>
+        <v>0.1196961001632752</v>
       </c>
       <c r="D96">
-        <v>0.1616010638009883</v>
+        <v>0.08116106234668645</v>
       </c>
       <c r="E96">
-        <v>0.1188173938705614</v>
+        <v>0.5413477099831249</v>
       </c>
       <c r="F96">
-        <v>0.1425280286353143</v>
+        <v>1.177197385150285</v>
       </c>
       <c r="G96">
-        <v>0.1542448770022915</v>
+        <v>0.4363625674691873</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2605,22 +2605,22 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.01996408771453186</v>
+        <v>-0.5396893946457936</v>
       </c>
       <c r="C97">
-        <v>0.01406215568161242</v>
+        <v>0.2948343534369934</v>
       </c>
       <c r="D97">
-        <v>0.02548312362804965</v>
+        <v>-0.06601168092536566</v>
       </c>
       <c r="E97">
-        <v>0.0193487976143656</v>
+        <v>0.7775529543833382</v>
       </c>
       <c r="F97">
-        <v>0.02582233947638587</v>
+        <v>0.1841155559189634</v>
       </c>
       <c r="G97">
-        <v>0.02077245318861917</v>
+        <v>1.184492186066082</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2628,22 +2628,22 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.1059636288999406</v>
+        <v>-0.1197326097738929</v>
       </c>
       <c r="C98">
-        <v>0.09310310034626935</v>
+        <v>0.04605391243964025</v>
       </c>
       <c r="D98">
-        <v>0.1411033214037572</v>
+        <v>0.1789903308596867</v>
       </c>
       <c r="E98">
-        <v>0.1275542504775299</v>
+        <v>0.131079474361249</v>
       </c>
       <c r="F98">
-        <v>0.1189081375813828</v>
+        <v>0.1356766070304076</v>
       </c>
       <c r="G98">
-        <v>0.1325463217192304</v>
+        <v>0.1295719206886295</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2651,22 +2651,22 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.3559549898302746</v>
+        <v>-0.02275769464807485</v>
       </c>
       <c r="C99">
-        <v>0.2792674936779947</v>
+        <v>0.01600061934230912</v>
       </c>
       <c r="D99">
-        <v>0.198944605139362</v>
+        <v>0.02567300165902055</v>
       </c>
       <c r="E99">
-        <v>0.5056323791071465</v>
+        <v>0.02672707341942401</v>
       </c>
       <c r="F99">
-        <v>0.4446002470222564</v>
+        <v>0.02182764646687795</v>
       </c>
       <c r="G99">
-        <v>0.3564172405443538</v>
+        <v>0.02297678400351464</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2674,22 +2674,22 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.02034222378415689</v>
+        <v>-0.02280931976128172</v>
       </c>
       <c r="C100">
-        <v>0.01181478294647518</v>
+        <v>0.01504377828357569</v>
       </c>
       <c r="D100">
-        <v>0.02552519023240704</v>
+        <v>0.02496540118917208</v>
       </c>
       <c r="E100">
-        <v>0.02130514832334567</v>
+        <v>0.02369085748456274</v>
       </c>
       <c r="F100">
-        <v>0.02466261054818666</v>
+        <v>0.02565369061484647</v>
       </c>
       <c r="G100">
-        <v>0.02215440489366363</v>
+        <v>0.02366057258389493</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2697,22 +2697,22 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.02077749374773012</v>
+        <v>-0.2258927881235576</v>
       </c>
       <c r="C101">
-        <v>0.01916580974075569</v>
+        <v>0.1612761898014193</v>
       </c>
       <c r="D101">
-        <v>0.0220239387038008</v>
+        <v>0.2933246677949174</v>
       </c>
       <c r="E101">
-        <v>0.01947192544360604</v>
+        <v>0.253085234758424</v>
       </c>
       <c r="F101">
-        <v>0.02483026913724271</v>
+        <v>0.2773947049189516</v>
       </c>
       <c r="G101">
-        <v>0.02358949972326514</v>
+        <v>0.282919169475506</v>
       </c>
     </row>
   </sheetData>
